--- a/data/Earnings_reformatted.xlsx
+++ b/data/Earnings_reformatted.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EYAU\Documents\LEO-Visualisation-Tool\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D20A8D9-E315-4F71-84D1-1FA55A6DA0EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B529341-AA33-4EFC-A61A-5D1F75CFA0DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27840" yWindow="-2475" windowWidth="21600" windowHeight="11325" tabRatio="900" firstSheet="5" activeTab="11" xr2:uid="{8390902F-5185-4210-86F2-DE3FFDA8F01E}"/>
+    <workbookView xWindow="-23220" yWindow="-600" windowWidth="21600" windowHeight="11325" tabRatio="900" xr2:uid="{8390902F-5185-4210-86F2-DE3FFDA8F01E}"/>
   </bookViews>
   <sheets>
     <sheet name="National_All" sheetId="1" r:id="rId1"/>
@@ -317,7 +317,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
@@ -337,6 +337,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -654,20 +658,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{621746DA-C33F-48CA-8379-18C76CDC3FA1}">
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.6640625" customWidth="1"/>
+    <col min="2" max="2" width="8.88671875" style="14"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="14" t="s">
         <v>53</v>
       </c>
       <c r="C1" t="s">
@@ -678,7 +683,7 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="12">
         <v>4874</v>
       </c>
       <c r="C2" t="s">
@@ -689,7 +694,7 @@
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="12">
         <v>7674</v>
       </c>
       <c r="C3" t="s">
@@ -700,7 +705,7 @@
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="12">
         <v>10155</v>
       </c>
       <c r="C4" t="s">
@@ -711,7 +716,7 @@
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="12">
         <v>11576</v>
       </c>
       <c r="C5" t="s">
@@ -722,7 +727,7 @@
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="12">
         <v>13147</v>
       </c>
       <c r="C6" t="s">
@@ -733,7 +738,7 @@
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="12">
         <v>15132</v>
       </c>
       <c r="C7" t="s">
@@ -744,7 +749,7 @@
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="12">
         <v>16988</v>
       </c>
       <c r="C8" t="s">
@@ -755,7 +760,7 @@
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="12">
         <v>18538</v>
       </c>
       <c r="C9" t="s">
@@ -766,7 +771,7 @@
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="12">
         <v>19828</v>
       </c>
       <c r="C10" t="s">
@@ -777,7 +782,7 @@
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="12">
         <v>20981</v>
       </c>
       <c r="C11" t="s">
@@ -788,7 +793,7 @@
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="12">
         <v>21853</v>
       </c>
       <c r="C12" t="s">
@@ -799,7 +804,7 @@
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="12">
         <v>22556</v>
       </c>
       <c r="C13" t="s">
@@ -810,7 +815,7 @@
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="12">
         <v>23168</v>
       </c>
       <c r="C14" t="s">
@@ -821,7 +826,7 @@
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15" s="12">
         <v>23609</v>
       </c>
       <c r="C15" t="s">
@@ -832,7 +837,7 @@
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B16" s="13">
         <v>23983</v>
       </c>
       <c r="C16" t="s">
@@ -841,6 +846,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2887,21 +2893,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1367E7B-D9E4-4244-961B-58C51EDE7FFA}">
   <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.6640625" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" style="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="11" t="s">
         <v>53</v>
       </c>
       <c r="C1" t="s">
@@ -2912,7 +2918,7 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="12">
         <v>3562</v>
       </c>
       <c r="C2" t="s">
@@ -2923,7 +2929,7 @@
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="12">
         <v>4543</v>
       </c>
       <c r="C3" t="s">
@@ -2934,7 +2940,7 @@
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="12">
         <v>4830</v>
       </c>
       <c r="C4" t="s">
@@ -2945,7 +2951,7 @@
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="12">
         <v>4860</v>
       </c>
       <c r="C5" t="s">
@@ -2956,7 +2962,7 @@
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="12">
         <v>6832</v>
       </c>
       <c r="C6" t="s">
@@ -2967,7 +2973,7 @@
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="12">
         <v>12573</v>
       </c>
       <c r="C7" t="s">
@@ -2978,7 +2984,7 @@
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="12">
         <v>17863</v>
       </c>
       <c r="C8" t="s">
@@ -2989,7 +2995,7 @@
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="12">
         <v>21204</v>
       </c>
       <c r="C9" t="s">
@@ -3000,7 +3006,7 @@
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="12">
         <v>23527</v>
       </c>
       <c r="C10" t="s">
@@ -3011,7 +3017,7 @@
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="12">
         <v>25404</v>
       </c>
       <c r="C11" t="s">
@@ -3022,7 +3028,7 @@
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="12">
         <v>26879</v>
       </c>
       <c r="C12" t="s">
@@ -3033,7 +3039,7 @@
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="12">
         <v>28184</v>
       </c>
       <c r="C13" t="s">
@@ -3044,7 +3050,7 @@
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="12">
         <v>29340</v>
       </c>
       <c r="C14" t="s">
@@ -3055,7 +3061,7 @@
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15" s="12">
         <v>30122</v>
       </c>
       <c r="C15" t="s">
@@ -3066,7 +3072,7 @@
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B16" s="13">
         <v>30751</v>
       </c>
       <c r="C16" t="s">
@@ -3077,7 +3083,7 @@
       <c r="A17">
         <v>1</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17" s="12">
         <v>6140</v>
       </c>
       <c r="C17" t="s">
@@ -3088,7 +3094,7 @@
       <c r="A18">
         <v>2</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B18" s="12">
         <v>9609</v>
       </c>
       <c r="C18" t="s">
@@ -3099,7 +3105,7 @@
       <c r="A19">
         <v>3</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B19" s="12">
         <v>12482</v>
       </c>
       <c r="C19" t="s">
@@ -3110,7 +3116,7 @@
       <c r="A20">
         <v>4</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B20" s="12">
         <v>14089</v>
       </c>
       <c r="C20" t="s">
@@ -3121,7 +3127,7 @@
       <c r="A21">
         <v>5</v>
       </c>
-      <c r="B21" s="2">
+      <c r="B21" s="12">
         <v>15160</v>
       </c>
       <c r="C21" t="s">
@@ -3132,7 +3138,7 @@
       <c r="A22">
         <v>6</v>
       </c>
-      <c r="B22" s="2">
+      <c r="B22" s="12">
         <v>15951</v>
       </c>
       <c r="C22" t="s">
@@ -3143,7 +3149,7 @@
       <c r="A23">
         <v>7</v>
       </c>
-      <c r="B23" s="2">
+      <c r="B23" s="12">
         <v>16633</v>
       </c>
       <c r="C23" t="s">
@@ -3154,7 +3160,7 @@
       <c r="A24">
         <v>8</v>
       </c>
-      <c r="B24" s="2">
+      <c r="B24" s="12">
         <v>17324</v>
       </c>
       <c r="C24" t="s">
@@ -3165,7 +3171,7 @@
       <c r="A25">
         <v>9</v>
       </c>
-      <c r="B25" s="2">
+      <c r="B25" s="12">
         <v>17996</v>
       </c>
       <c r="C25" t="s">
@@ -3176,7 +3182,7 @@
       <c r="A26">
         <v>10</v>
       </c>
-      <c r="B26" s="2">
+      <c r="B26" s="12">
         <v>18629</v>
       </c>
       <c r="C26" t="s">
@@ -3187,7 +3193,7 @@
       <c r="A27">
         <v>11</v>
       </c>
-      <c r="B27" s="2">
+      <c r="B27" s="12">
         <v>19088</v>
       </c>
       <c r="C27" t="s">
@@ -3198,7 +3204,7 @@
       <c r="A28">
         <v>12</v>
       </c>
-      <c r="B28" s="2">
+      <c r="B28" s="12">
         <v>19516</v>
       </c>
       <c r="C28" t="s">
@@ -3209,7 +3215,7 @@
       <c r="A29">
         <v>13</v>
       </c>
-      <c r="B29" s="2">
+      <c r="B29" s="12">
         <v>19931</v>
       </c>
       <c r="C29" t="s">
@@ -3220,7 +3226,7 @@
       <c r="A30">
         <v>14</v>
       </c>
-      <c r="B30" s="2">
+      <c r="B30" s="12">
         <v>20276</v>
       </c>
       <c r="C30" t="s">
@@ -3231,7 +3237,7 @@
       <c r="A31">
         <v>15</v>
       </c>
-      <c r="B31" s="3">
+      <c r="B31" s="13">
         <v>20598</v>
       </c>
       <c r="C31" t="s">
@@ -3240,6 +3246,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
